--- a/Decision_variables.xlsx
+++ b/Decision_variables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niekjansenvanrensburg/Documents/MDO/Assignment_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Hopker\Documents\GitHub\mdo-biogas-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{491E7ADF-991C-9441-B536-41DE1688ED44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0790D2C-8716-45B3-9E6A-428689B66C7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E088538B-7F51-40A9-9E8B-66E48D3ED09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22360" yWindow="5400" windowWidth="26300" windowHeight="17440" xr2:uid="{3401D942-13D0-054C-9961-07B5F38F1A1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3401D942-13D0-054C-9961-07B5F38F1A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Experiment</t>
   </si>
@@ -211,13 +212,52 @@
   </si>
   <si>
     <t xml:space="preserve">Digestate (Dig) </t>
+  </si>
+  <si>
+    <t>V_gburn</t>
+  </si>
+  <si>
+    <t>Design Variable</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Optimized in</t>
+  </si>
+  <si>
+    <t>V_g</t>
+  </si>
+  <si>
+    <t>0.5*V_g</t>
+  </si>
+  <si>
+    <t>n_g</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +275,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,7 +322,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,16 +636,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EACC72-6EE8-9149-867A-69437CEA090E}">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="24" max="24" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="84.95">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -893,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -902,7 +948,7 @@
         <v>19.909999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -911,22 +957,22 @@
         <v>139.36999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
     </row>
   </sheetData>
@@ -935,7 +981,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4C6C64-1F82-4231-A516-0E1B194F06DD}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100720D07F318C37042A139D4E025BEBFAB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c5a490bc307b1973a75cabea7268063">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="50212d7f-d8f2-4c52-8864-549e1880ecad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c61611138da824a8cb9bdab6bd9332b" ns2:_="">
     <xsd:import namespace="50212d7f-d8f2-4c52-8864-549e1880ecad"/>
@@ -1081,29 +1220,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{667B1E25-096F-4EE8-B795-C44CED4F65E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C000A07D-6CFC-4919-8B30-2A495D90C4E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1B1050-8496-49DB-876B-D84CEF4C6D2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1B1050-8496-49DB-876B-D84CEF4C6D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C000A07D-6CFC-4919-8B30-2A495D90C4E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{667B1E25-096F-4EE8-B795-C44CED4F65E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50212d7f-d8f2-4c52-8864-549e1880ecad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Decision_variables.xlsx
+++ b/Decision_variables.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod.sharepoint.com/sites/EM.428MDOBiogasspring2021/Shared Documents/General/Assignment A2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niekjansenvanrensburg/Documents/MDO/Assignment_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{491E7ADF-991C-9441-B536-41DE1688ED44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB3A845D-8415-4611-93BE-7C22936BC2D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E8672-1D69-DE4C-8B28-EE3D1266B9DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" xr2:uid="{3401D942-13D0-054C-9961-07B5F38F1A1A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{3401D942-13D0-054C-9961-07B5F38F1A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DOE_options" sheetId="2" r:id="rId2"/>
     <sheet name="DOE_exp" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,16 +668,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EACC72-6EE8-9149-867A-69437CEA090E}">
   <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AL1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="24" max="24" width="10.875" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="1" customFormat="1" ht="78.75">
+    <row r="1" spans="1:57" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -890,10 +890,10 @@
         <v>0.05</v>
       </c>
       <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
         <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
       </c>
       <c r="O2" s="3">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0.03</v>
       </c>
       <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
         <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1</v>
       </c>
       <c r="V2" s="3">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0.03</v>
       </c>
       <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3">
         <v>0</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>1</v>
       </c>
       <c r="AC2" s="3">
         <v>0</v>
@@ -956,16 +956,16 @@
         <v>0.03</v>
       </c>
       <c r="AH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3">
         <v>0</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>1</v>
       </c>
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -974,7 +974,7 @@
         <v>19.909999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -983,22 +983,22 @@
         <v>139.36999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
     </row>
   </sheetData>
@@ -1015,14 +1015,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>63</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>63</v>
       </c>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1112,19 +1112,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1274,19 +1271,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C000A07D-6CFC-4919-8B30-2A495D90C4E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1B1050-8496-49DB-876B-D84CEF4C6D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{667B1E25-096F-4EE8-B795-C44CED4F65E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{667B1E25-096F-4EE8-B795-C44CED4F65E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50212d7f-d8f2-4c52-8864-549e1880ecad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1B1050-8496-49DB-876B-D84CEF4C6D2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C000A07D-6CFC-4919-8B30-2A495D90C4E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>